--- a/CoffeeStore/ExcelBill/BL00012.xlsx
+++ b/CoffeeStore/ExcelBill/BL00012.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
   <si>
     <t/>
   </si>
@@ -53,7 +53,7 @@
     <t>Table:</t>
   </si>
   <si>
-    <t>TB004</t>
+    <t>TB001</t>
   </si>
   <si>
     <t>Num</t>
@@ -71,22 +71,13 @@
     <t>1.</t>
   </si>
   <si>
-    <t>Lemon Yogurt</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Size: M - Status: COLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Golden Pearl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Konjac Caramel Jelly</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Diamond Jelly</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Pudding</t>
+    <t>Lattee</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Size: M - Status: HOT </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Condensed Milk</t>
   </si>
   <si>
     <t>Total:</t>
@@ -633,7 +624,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -743,10 +734,10 @@
         <v>19</v>
       </c>
       <c r="F13" t="n" s="7">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G13" t="n" s="7">
-        <v>180000.0</v>
+        <v>86000.0</v>
       </c>
       <c r="I13" s="10"/>
     </row>
@@ -763,114 +754,75 @@
         <v>21</v>
       </c>
       <c r="F15" t="n" s="8">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G15" t="n" s="8">
-        <v>12000.0</v>
+        <v>18000.0</v>
       </c>
       <c r="I15" s="10"/>
     </row>
     <row r="16">
       <c r="A16" s="13"/>
-      <c r="B16" t="s" s="8">
-        <v>22</v>
-      </c>
-      <c r="F16" t="n" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="G16" t="n" s="8">
-        <v>16000.0</v>
-      </c>
       <c r="I16" s="10"/>
     </row>
     <row r="17">
       <c r="A17" s="13"/>
-      <c r="B17" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="F17" t="n" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="G17" t="n" s="8">
-        <v>6000.0</v>
+      <c r="F17" t="s" s="4">
+        <v>22</v>
+      </c>
+      <c r="H17" t="n" s="9">
+        <v>86000.0</v>
       </c>
       <c r="I17" s="10"/>
     </row>
     <row r="18">
       <c r="A18" s="13"/>
-      <c r="B18" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="F18" t="n" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="G18" t="n" s="8">
-        <v>6000.0</v>
+      <c r="F18" t="s" s="4">
+        <v>23</v>
+      </c>
+      <c r="H18" t="n" s="9">
+        <v>100000.0</v>
       </c>
       <c r="I18" s="10"/>
     </row>
     <row r="19">
       <c r="A19" s="13"/>
+      <c r="F19" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="H19" t="n" s="9">
+        <v>14000.0</v>
+      </c>
       <c r="I19" s="10"/>
     </row>
     <row r="20">
       <c r="A20" s="13"/>
-      <c r="F20" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="H20" t="n" s="9">
-        <v>180000.0</v>
-      </c>
       <c r="I20" s="10"/>
     </row>
     <row r="21">
       <c r="A21" s="13"/>
-      <c r="F21" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="H21" t="n" s="9">
-        <v>0.0</v>
+      <c r="C21" t="s" s="6">
+        <v>25</v>
       </c>
       <c r="I21" s="10"/>
     </row>
     <row r="22">
       <c r="A22" s="13"/>
-      <c r="F22" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="H22" t="n" s="9">
-        <v>0.0</v>
+      <c r="C22" t="s" s="6">
+        <v>26</v>
       </c>
       <c r="I22" s="10"/>
     </row>
     <row r="23">
-      <c r="A23" s="13"/>
-      <c r="I23" s="10"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="13"/>
-      <c r="C24" t="s" s="6">
-        <v>28</v>
-      </c>
-      <c r="I24" s="10"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="13"/>
-      <c r="C25" t="s" s="6">
-        <v>29</v>
-      </c>
-      <c r="I25" s="10"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="21"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="23"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="23"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -891,23 +843,17 @@
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
     <mergeCell ref="A23:I23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="A26:I26"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
